--- a/biology/Zoologie/Cupido/Cupido.xlsx
+++ b/biology/Zoologie/Cupido/Cupido.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupido est un genre holarctique de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
 </t>
@@ -511,12 +523,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Cupido a été décrit par le naturaliste allemand Franz von Paula Schrank en 1801. Son espèce type est Papilio minimus Fuessly, 1775[1].
-Synonymes[1] :
-Everes Hübner, [1819] – encore considéré par certains auteurs comme un genre distinct, ou parfois comme un sous-genre de Cupido.
-Zizera Moore, [1881]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Cupido a été décrit par le naturaliste allemand Franz von Paula Schrank en 1801. Son espèce type est Papilio minimus Fuessly, 1775.
+Synonymes :
+Everes Hübner,  – encore considéré par certains auteurs comme un genre distinct, ou parfois comme un sous-genre de Cupido.
+Zizera Moore, 
 Tiora Evans, 1912
 Ununcula van Eecke, 1915</t>
         </is>
@@ -546,9 +560,11 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Funet[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Funet :
 Cupido alaina (Staudinger, 1887) — en Asie centrale.
 Cupido staudingeri (Christoph, 1873) — au Moyen-Orient.
 Cupido buddhista (Alphéraky, 1881) — en Asie centrale.
@@ -556,7 +572,7 @@
 Cupido tuzovi Lukhtanov, 1994 — en Asie centrale.
 Cupido peri Zhdanko, 2000 — en Asie centrale.
 Cupido osiris (Meigen, 1829) — l'Azuré de la chevrette — du Sud de l'Europe à la Sibérie.
-Cupido lorquinii (Herrich-Schäffer, [1851]) — l'Azuré grenadin — en Afrique du Nord et dans la péninsule Ibérique.
+Cupido lorquinii (Herrich-Schäffer, ) — l'Azuré grenadin — en Afrique du Nord et dans la péninsule Ibérique.
 Cupido carswelli Stempffer, 1927 — l'Azuré murcian — dans le Sud-Est de l'Espagne.
 Cupido prosecusa (Erschoff, 1874) — en Asie centrale.
 Cupido gisela (Püngeler, 1901) — au Tibet.
@@ -565,10 +581,10 @@
 Cupido huegelii (Gistel, 1857) — dans l'Himalaya et en Asie du Sud-Est.
 Cupido decolor (Staudinger, 1886) — en Asie centrale.
 Cupido amyntula (Boisduval, 1852) — le Bleu porte-queue de l'Ouest — en Amérique du Nord.
-Cupido comyntas (Godart, [1824]) — le Bleu porte-queue de l'Est — en Amérique du Nord.
+Cupido comyntas (Godart, ) — le Bleu porte-queue de l'Est — en Amérique du Nord.
 Cupido alcetas (Hoffmannsegg, 1804) — l'Azuré de la faucille — du Sud de l'Europe à la Sibérie.
 Cupido decoloratus (Staudinger, 1886) — l'Azuré de la minette — dans le Sud-Est de l'Europe.
-Cupido lacturnus (Godart, [1824]) — en Asie du Sud, de l'Est et du Sud-Est et en Océanie.
+Cupido lacturnus (Godart, ) — en Asie du Sud, de l'Est et du Sud-Est et en Océanie.
 Cupido nagarensis Charmeux &amp; Desse, 2006 — au Pakistan.
 			Cupido minimus
 			Cupido osiris
